--- a/data/Book_rank_title.xlsx
+++ b/data/Book_rank_title.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\shared_with_honey\NEU\cs5100 Foundation of Artificial intelligence\project\dataset\amazon book reviews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\shared_with_honey\NEU\cs5100 Foundation of Artificial intelligence\project\CS5100ProjectNew\CS5100Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEE4B376-F1AB-4F6D-8CE4-7B744B6D5BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA9894-F7B2-4F5A-82B7-1D42C9B83F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95E510F7-2AD1-41B5-8D35-BE3A425AE58B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="242">
   <si>
     <t>0385376715</t>
   </si>
@@ -746,9 +746,6 @@
     <t>Scarlett</t>
   </si>
   <si>
-    <t>ASIN</t>
-  </si>
-  <si>
     <t>reviews_count</t>
   </si>
   <si>
@@ -758,7 +755,13 @@
     <t>category</t>
   </si>
   <si>
-    <t>Book Rank</t>
+    <t>asin</t>
+  </si>
+  <si>
+    <t>rank_origin</t>
+  </si>
+  <si>
+    <t>whole book rank</t>
   </si>
 </sst>
 </file>
@@ -1131,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7616D76E-44C9-4CA5-8577-213F12763658}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,27 +1146,31 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="115.5703125" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
         <v>236</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>237</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>238</v>
       </c>
-      <c r="D1" t="s">
-        <v>239</v>
-      </c>
       <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,8 +1186,11 @@
       <c r="E2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1196,8 +1206,11 @@
       <c r="E3">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1213,8 +1226,11 @@
       <c r="E4">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1230,8 +1246,11 @@
       <c r="E5">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,8 +1266,11 @@
       <c r="E6">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1419708457</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="E7">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1609580834</v>
       </c>
@@ -1281,8 +1306,11 @@
       <c r="E8">
         <v>198</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1298,8 +1326,11 @@
       <c r="E9">
         <v>474</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,8 +1346,11 @@
       <c r="E10">
         <v>542</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1609580427</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="E11">
         <v>585</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1386,11 @@
       <c r="E12">
         <v>628</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1366,8 +1406,11 @@
       <c r="E13">
         <v>728</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1383,8 +1426,11 @@
       <c r="E14">
         <v>743</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1400,8 +1446,11 @@
       <c r="E15">
         <v>768</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1938298071</v>
       </c>
@@ -1417,8 +1466,11 @@
       <c r="E16">
         <v>792</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1434,8 +1486,11 @@
       <c r="E17">
         <v>793</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1451,8 +1506,11 @@
       <c r="E18">
         <v>885</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1423133080</v>
       </c>
@@ -1468,8 +1526,11 @@
       <c r="E19">
         <v>900</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1554537045</v>
       </c>
@@ -1485,8 +1546,11 @@
       <c r="E20">
         <v>952</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1465414053</v>
       </c>
@@ -1502,8 +1566,11 @@
       <c r="E21">
         <v>1083</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1519,8 +1586,11 @@
       <c r="E22">
         <v>1391</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1536,8 +1606,11 @@
       <c r="E23">
         <v>1507</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1553,8 +1626,11 @@
       <c r="E24">
         <v>1516</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1493527487</v>
       </c>
@@ -1570,8 +1646,11 @@
       <c r="E25">
         <v>1571</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1587,8 +1666,11 @@
       <c r="E26">
         <v>1631</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1604,8 +1686,11 @@
       <c r="E27">
         <v>1662</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1621,8 +1706,11 @@
       <c r="E28">
         <v>1672</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1638,8 +1726,11 @@
       <c r="E29">
         <v>2069</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1655,8 +1746,11 @@
       <c r="E30">
         <v>2313</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -1672,8 +1766,11 @@
       <c r="E31">
         <v>2345</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -1689,8 +1786,11 @@
       <c r="E32">
         <v>2445</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -1706,8 +1806,11 @@
       <c r="E33">
         <v>2478</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1723,8 +1826,11 @@
       <c r="E34">
         <v>2557</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -1740,8 +1846,11 @@
       <c r="E35">
         <v>2695</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1442429771</v>
       </c>
@@ -1757,8 +1866,11 @@
       <c r="E36">
         <v>3442</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1452109206</v>
       </c>
@@ -1774,8 +1886,11 @@
       <c r="E37">
         <v>3509</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -1791,8 +1906,11 @@
       <c r="E38">
         <v>3562</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1808,8 +1926,11 @@
       <c r="E39">
         <v>3705</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>68</v>
       </c>
@@ -1825,8 +1946,11 @@
       <c r="E40">
         <v>3827</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
@@ -1842,8 +1966,11 @@
       <c r="E41">
         <v>3908</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>72</v>
       </c>
@@ -1859,8 +1986,11 @@
       <c r="E42">
         <v>4395</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1416980067</v>
       </c>
@@ -1876,8 +2006,11 @@
       <c r="E43">
         <v>4663</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
@@ -1893,8 +2026,11 @@
       <c r="E44">
         <v>4826</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
@@ -1910,8 +2046,11 @@
       <c r="E45">
         <v>4911</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
@@ -1927,8 +2066,11 @@
       <c r="E46">
         <v>5574</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -1944,8 +2086,11 @@
       <c r="E47">
         <v>5676</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>83</v>
       </c>
@@ -1961,8 +2106,11 @@
       <c r="E48">
         <v>5717</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>85</v>
       </c>
@@ -1978,8 +2126,11 @@
       <c r="E49">
         <v>5746</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
@@ -1995,8 +2146,11 @@
       <c r="E50">
         <v>8328</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>89</v>
       </c>
@@ -2012,8 +2166,11 @@
       <c r="E51">
         <v>8414</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
@@ -2029,8 +2186,11 @@
       <c r="E52">
         <v>8817</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2046,8 +2206,11 @@
       <c r="E53">
         <v>9295</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
@@ -2063,8 +2226,11 @@
       <c r="E54">
         <v>9941</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
@@ -2080,8 +2246,11 @@
       <c r="E55">
         <v>9994</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>99</v>
       </c>
@@ -2097,8 +2266,11 @@
       <c r="E56">
         <v>13915</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1481466224</v>
       </c>
@@ -2114,8 +2286,11 @@
       <c r="E57">
         <v>14084</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>102</v>
       </c>
@@ -2131,8 +2306,11 @@
       <c r="E58">
         <v>14634</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -2148,8 +2326,11 @@
       <c r="E59">
         <v>16855</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>106</v>
       </c>
@@ -2165,8 +2346,11 @@
       <c r="E60">
         <v>17634</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>108</v>
       </c>
@@ -2182,8 +2366,11 @@
       <c r="E61">
         <v>21112</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>110</v>
       </c>
@@ -2199,8 +2386,11 @@
       <c r="E62">
         <v>22904</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>112</v>
       </c>
@@ -2216,8 +2406,11 @@
       <c r="E63">
         <v>30245</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>114</v>
       </c>
@@ -2233,8 +2426,11 @@
       <c r="E64">
         <v>37059</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>116</v>
       </c>
@@ -2250,8 +2446,11 @@
       <c r="E65">
         <v>40777</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>118</v>
       </c>
@@ -2267,8 +2466,11 @@
       <c r="E66">
         <v>53092</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
@@ -2284,8 +2486,11 @@
       <c r="E67">
         <v>56532</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -2301,8 +2506,11 @@
       <c r="E68">
         <v>61578</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>124</v>
       </c>
@@ -2318,8 +2526,11 @@
       <c r="E69">
         <v>64065</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>126</v>
       </c>
@@ -2335,8 +2546,11 @@
       <c r="E70">
         <v>72960</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -2352,8 +2566,11 @@
       <c r="E71">
         <v>75232</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
@@ -2369,8 +2586,11 @@
       <c r="E72">
         <v>75886</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1477826351</v>
       </c>
@@ -2386,8 +2606,11 @@
       <c r="E73">
         <v>83225</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>133</v>
       </c>
@@ -2403,8 +2626,11 @@
       <c r="E74">
         <v>90122</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>135</v>
       </c>
@@ -2420,8 +2646,11 @@
       <c r="E75">
         <v>92406</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1494430533</v>
       </c>
@@ -2437,8 +2666,11 @@
       <c r="E76">
         <v>97872</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>138</v>
       </c>
@@ -2454,8 +2686,11 @@
       <c r="E77">
         <v>103646</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1423166310</v>
       </c>
@@ -2471,8 +2706,11 @@
       <c r="E78">
         <v>105540</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>141</v>
       </c>
@@ -2488,8 +2726,11 @@
       <c r="E79">
         <v>118858</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>143</v>
       </c>
@@ -2505,8 +2746,11 @@
       <c r="E80">
         <v>123082</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>145</v>
       </c>
@@ -2522,8 +2766,11 @@
       <c r="E81">
         <v>125433</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>147</v>
       </c>
@@ -2539,8 +2786,11 @@
       <c r="E82">
         <v>127669</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>149</v>
       </c>
@@ -2556,8 +2806,11 @@
       <c r="E83">
         <v>145582</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>151</v>
       </c>
@@ -2573,8 +2826,11 @@
       <c r="E84">
         <v>163368</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>153</v>
       </c>
@@ -2590,8 +2846,11 @@
       <c r="E85">
         <v>221835</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>155</v>
       </c>
@@ -2607,8 +2866,11 @@
       <c r="E86">
         <v>243750</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>157</v>
       </c>
@@ -2624,8 +2886,11 @@
       <c r="E87">
         <v>267140</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
@@ -2641,8 +2906,11 @@
       <c r="E88">
         <v>343660</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>161</v>
       </c>
@@ -2658,8 +2926,11 @@
       <c r="E89">
         <v>371156</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>163</v>
       </c>
@@ -2675,8 +2946,11 @@
       <c r="E90">
         <v>543585</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>165</v>
       </c>
@@ -2692,8 +2966,11 @@
       <c r="E91">
         <v>546919</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>167</v>
       </c>
@@ -2709,8 +2986,11 @@
       <c r="E92">
         <v>617931</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>169</v>
       </c>
@@ -2726,8 +3006,11 @@
       <c r="E93">
         <v>632976</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>171</v>
       </c>
@@ -2743,8 +3026,11 @@
       <c r="E94">
         <v>708494</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>173</v>
       </c>
@@ -2760,8 +3046,11 @@
       <c r="E95">
         <v>767065</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1491524081</v>
       </c>
@@ -2777,8 +3066,11 @@
       <c r="E96">
         <v>770577</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -2794,8 +3086,11 @@
       <c r="E97">
         <v>784000</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>178</v>
       </c>
@@ -2811,8 +3106,11 @@
       <c r="E98">
         <v>1166420</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>180</v>
       </c>
@@ -2828,8 +3126,11 @@
       <c r="E99">
         <v>1197817</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1442373636</v>
       </c>
@@ -2845,8 +3146,11 @@
       <c r="E100">
         <v>1211709</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>183</v>
       </c>
@@ -2862,8 +3166,11 @@
       <c r="E101">
         <v>1323364</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1442360712</v>
       </c>
@@ -2879,8 +3186,11 @@
       <c r="E102">
         <v>1384400</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>9657141591</v>
       </c>
@@ -2896,8 +3206,11 @@
       <c r="E103">
         <v>1402465</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>187</v>
       </c>
@@ -2913,8 +3226,11 @@
       <c r="E104">
         <v>1413536</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1442354755</v>
       </c>
@@ -2930,8 +3246,11 @@
       <c r="E105">
         <v>1480205</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>190</v>
       </c>
@@ -2947,8 +3266,11 @@
       <c r="E106">
         <v>1693736</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>192</v>
       </c>
@@ -2964,8 +3286,11 @@
       <c r="E107">
         <v>1706797</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>194</v>
       </c>
@@ -2981,8 +3306,11 @@
       <c r="E108">
         <v>1758951</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>196</v>
       </c>
@@ -2998,8 +3326,11 @@
       <c r="E109">
         <v>1759547</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>198</v>
       </c>
@@ -3015,8 +3346,11 @@
       <c r="E110">
         <v>1875107</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>200</v>
       </c>
@@ -3032,8 +3366,11 @@
       <c r="E111">
         <v>2156559</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>202</v>
       </c>
@@ -3049,8 +3386,11 @@
       <c r="E112">
         <v>2201056</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>204</v>
       </c>
@@ -3066,8 +3406,11 @@
       <c r="E113">
         <v>2318269</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1481918087</v>
       </c>
@@ -3083,8 +3426,11 @@
       <c r="E114">
         <v>2423362</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -3100,8 +3446,11 @@
       <c r="E115">
         <v>2795163</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>209</v>
       </c>
@@ -3117,8 +3466,11 @@
       <c r="E116">
         <v>2990314</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>211</v>
       </c>
@@ -3134,8 +3486,11 @@
       <c r="E117">
         <v>3006157</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>213</v>
       </c>
@@ -3151,8 +3506,11 @@
       <c r="E118">
         <v>3308354</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1442352965</v>
       </c>
@@ -3168,8 +3526,11 @@
       <c r="E119">
         <v>3482355</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>216</v>
       </c>
@@ -3185,8 +3546,11 @@
       <c r="E120">
         <v>3568376</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>218</v>
       </c>
@@ -3202,8 +3566,11 @@
       <c r="E121">
         <v>3717713</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>220</v>
       </c>
@@ -3219,8 +3586,11 @@
       <c r="E122">
         <v>3720066</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>222</v>
       </c>
@@ -3236,8 +3606,11 @@
       <c r="E123">
         <v>3956998</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>224</v>
       </c>
@@ -3253,8 +3626,11 @@
       <c r="E124">
         <v>4355692</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>226</v>
       </c>
@@ -3270,8 +3646,11 @@
       <c r="E125">
         <v>4563611</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>228</v>
       </c>
@@ -3287,8 +3666,11 @@
       <c r="E126">
         <v>4761071</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>230</v>
       </c>
@@ -3304,8 +3686,11 @@
       <c r="E127">
         <v>4837339</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>232</v>
       </c>
@@ -3321,8 +3706,11 @@
       <c r="E128">
         <v>5263191</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>234</v>
       </c>
@@ -3337,6 +3725,9 @@
       </c>
       <c r="E129">
         <v>13226965</v>
+      </c>
+      <c r="F129">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/Book_rank_title.xlsx
+++ b/data/Book_rank_title.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\shared_with_honey\NEU\cs5100 Foundation of Artificial intelligence\project\CS5100ProjectNew\CS5100Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA9894-F7B2-4F5A-82B7-1D42C9B83F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7696664A-9929-4338-B44F-264FC7D35E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95E510F7-2AD1-41B5-8D35-BE3A425AE58B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95E510F7-2AD1-41B5-8D35-BE3A425AE58B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -797,9 +797,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,13 +1137,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7616D76E-44C9-4CA5-8577-213F12763658}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A85" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="115.5703125" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
@@ -1151,7 +1152,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B1" t="s">
@@ -1171,7 +1172,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1191,7 +1192,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -1211,7 +1212,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -1231,7 +1232,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -1251,7 +1252,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -1271,7 +1272,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1419708457</v>
       </c>
       <c r="B7">
@@ -1291,7 +1292,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1609580834</v>
       </c>
       <c r="B8">
@@ -1311,7 +1312,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9">
@@ -1331,7 +1332,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10">
@@ -1351,7 +1352,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1609580427</v>
       </c>
       <c r="B11">
@@ -1371,7 +1372,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12">
@@ -1391,7 +1392,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B13">
@@ -1411,7 +1412,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14">
@@ -1431,7 +1432,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15">
@@ -1451,7 +1452,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>1938298071</v>
       </c>
       <c r="B16">
@@ -1471,7 +1472,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B17">
@@ -1491,7 +1492,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B18">
@@ -1511,7 +1512,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>1423133080</v>
       </c>
       <c r="B19">
@@ -1531,7 +1532,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>1554537045</v>
       </c>
       <c r="B20">
@@ -1551,7 +1552,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>1465414053</v>
       </c>
       <c r="B21">
@@ -1571,7 +1572,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B22">
@@ -1591,7 +1592,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B23">
@@ -1611,7 +1612,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B24">
@@ -1631,7 +1632,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>1493527487</v>
       </c>
       <c r="B25">
@@ -1651,7 +1652,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B26">
@@ -1671,7 +1672,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B27">
@@ -1691,7 +1692,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B28">
@@ -1711,7 +1712,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B29">
@@ -1731,7 +1732,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B30">
@@ -1751,7 +1752,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B31">
@@ -1771,7 +1772,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B32">
@@ -1791,7 +1792,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B33">
@@ -1811,7 +1812,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B34">
@@ -1831,7 +1832,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B35">
@@ -1851,7 +1852,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>1442429771</v>
       </c>
       <c r="B36">
@@ -1871,7 +1872,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>1452109206</v>
       </c>
       <c r="B37">
@@ -1891,7 +1892,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B38">
@@ -1911,7 +1912,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B39">
@@ -1931,7 +1932,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B40">
@@ -1951,7 +1952,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B41">
@@ -1971,7 +1972,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B42">
@@ -1991,7 +1992,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>1416980067</v>
       </c>
       <c r="B43">
@@ -2011,7 +2012,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B44">
@@ -2031,7 +2032,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B45">
@@ -2051,7 +2052,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B46">
@@ -2071,7 +2072,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B47">
@@ -2091,7 +2092,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B48">
@@ -2111,7 +2112,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B49">
@@ -2131,7 +2132,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B50">
@@ -2151,7 +2152,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B51">
@@ -2171,7 +2172,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B52">
@@ -2191,7 +2192,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B53">
@@ -2211,7 +2212,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B54">
@@ -2231,7 +2232,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B55">
@@ -2251,7 +2252,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B56">
@@ -2271,7 +2272,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>1481466224</v>
       </c>
       <c r="B57">
@@ -2291,7 +2292,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B58">
@@ -2311,7 +2312,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B59">
@@ -2331,7 +2332,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B60">
@@ -2351,7 +2352,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B61">
@@ -2371,7 +2372,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B62">
@@ -2391,7 +2392,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B63">
@@ -2411,7 +2412,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B64">
@@ -2431,7 +2432,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B65">
@@ -2451,7 +2452,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B66">
@@ -2471,7 +2472,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B67">
@@ -2491,7 +2492,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B68">
@@ -2511,7 +2512,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B69">
@@ -2531,7 +2532,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B70">
@@ -2551,7 +2552,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B71">
@@ -2571,7 +2572,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B72">
@@ -2591,7 +2592,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>1477826351</v>
       </c>
       <c r="B73">
@@ -2611,7 +2612,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B74">
@@ -2631,7 +2632,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B75">
@@ -2651,7 +2652,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>1494430533</v>
       </c>
       <c r="B76">
@@ -2671,7 +2672,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B77">
@@ -2691,7 +2692,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>1423166310</v>
       </c>
       <c r="B78">
@@ -2711,7 +2712,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B79">
@@ -2731,7 +2732,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B80">
@@ -2751,7 +2752,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B81">
@@ -2771,7 +2772,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B82">
@@ -2791,7 +2792,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B83">
@@ -2811,7 +2812,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B84">
@@ -2831,7 +2832,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B85">
@@ -2851,7 +2852,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B86">
@@ -2871,7 +2872,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B87">
@@ -2891,7 +2892,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B88">
@@ -2911,7 +2912,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B89">
@@ -2931,7 +2932,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B90">
@@ -2951,7 +2952,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B91">
@@ -2971,7 +2972,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B92">
@@ -2991,7 +2992,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B93">
@@ -3011,7 +3012,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B94">
@@ -3031,7 +3032,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B95">
@@ -3051,7 +3052,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>1491524081</v>
       </c>
       <c r="B96">
@@ -3071,7 +3072,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B97">
@@ -3091,7 +3092,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B98">
@@ -3111,7 +3112,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B99">
@@ -3131,7 +3132,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>1442373636</v>
       </c>
       <c r="B100">
@@ -3151,7 +3152,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B101">
@@ -3171,7 +3172,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>1442360712</v>
       </c>
       <c r="B102">
@@ -3191,7 +3192,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>9657141591</v>
       </c>
       <c r="B103">
@@ -3211,7 +3212,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B104">
@@ -3231,7 +3232,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>1442354755</v>
       </c>
       <c r="B105">
@@ -3251,7 +3252,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B106">
@@ -3271,7 +3272,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B107">
@@ -3291,7 +3292,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B108">
@@ -3311,7 +3312,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B109">
@@ -3331,7 +3332,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B110">
@@ -3351,7 +3352,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B111">
@@ -3371,7 +3372,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B112">
@@ -3391,7 +3392,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B113">
@@ -3411,7 +3412,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>1481918087</v>
       </c>
       <c r="B114">
@@ -3431,7 +3432,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B115">
@@ -3451,7 +3452,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B116">
@@ -3471,7 +3472,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B117">
@@ -3491,7 +3492,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B118">
@@ -3511,7 +3512,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>1442352965</v>
       </c>
       <c r="B119">
@@ -3531,7 +3532,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B120">
@@ -3551,7 +3552,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B121">
@@ -3571,7 +3572,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B122">
@@ -3591,7 +3592,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B123">
@@ -3611,7 +3612,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B124">
@@ -3631,7 +3632,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B125">
@@ -3651,7 +3652,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B126">
@@ -3671,7 +3672,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B127">
@@ -3691,7 +3692,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B128">
@@ -3711,7 +3712,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B129">
